--- a/data/trans_camb/P40_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P40_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-10,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>-12,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,95</t>
+          <t>-11,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>-10,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-5,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-4,47</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-6,43</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-6,37</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-5,0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 9,93</t>
+          <t>-30,22; 0,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 0,49</t>
+          <t>-33,39; -3,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,73; -3,59</t>
+          <t>-30,88; -2,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 9,69</t>
+          <t>-29,76; 0,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 5,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 2,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 2,01</t>
+          <t>-7,68; 8,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 4,08</t>
+          <t>-8,53; 4,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 6,02</t>
+          <t>-9,82; 4,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 0,31</t>
+          <t>-7,34; 6,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-9,5; -1,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 5,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-14,86; 2,07</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-17,35; -1,05</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-16,42; -0,42</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-15,51; 1,23</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,37%</t>
+          <t>-52,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-31,92%</t>
+          <t>-62,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-52,84%</t>
+          <t>-59,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>-53,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-19,33%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,86%</t>
+          <t>-11,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>-14,43%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-24,16%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-37,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-29,51%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-42,5%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-42,07%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-33,01%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,88; 72,95</t>
+          <t>-85,9; 10,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,91; 4,05</t>
+          <t>-88,67; -23,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,45; -23,86</t>
+          <t>-83,52; -19,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,62; 71,62</t>
+          <t>-83,79; 2,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,0; 57,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,05; 25,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,13; 23,8</t>
+          <t>-50,99; 120,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 48,54</t>
+          <t>-53,13; 73,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-33,27; 50,55</t>
+          <t>-54,81; 61,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-46,34; 2,79</t>
+          <t>-48,71; 97,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-56,3; -12,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-24,88; 43,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-65,63; 20,37</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-69,46; -10,41</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-69,07; -4,66</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-66,14; 12,34</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,16</t>
+          <t>-6,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,2</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-8,37</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-7,92</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-6,96</t>
+          <t>-7,96</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-7,4</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-6,76</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-6,6</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 4,35</t>
+          <t>-8,99; 7,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,25; -3,97</t>
+          <t>-14,36; -0,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,14; -2,27</t>
+          <t>-13,09; 0,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 2,6</t>
+          <t>-13,54; 1,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 4,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -1,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -0,57</t>
+          <t>-7,91; 5,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 2,86</t>
+          <t>-14,33; -2,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 2,34</t>
+          <t>-14,07; -2,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -3,95</t>
+          <t>-14,91; -1,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -2,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 1,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-6,24; 4,69</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-12,09; -2,97</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-11,93; -2,44</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-12,18; -1,94</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,79%</t>
+          <t>-1,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-43,73%</t>
+          <t>-36,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-38,59%</t>
+          <t>-29,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,94%</t>
+          <t>-29,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-23,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-19,72%</t>
+          <t>-3,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-8,57%</t>
+          <t>-31,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,5%</t>
+          <t>-29,89%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-33,11%</t>
+          <t>-30,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-28,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-11,71%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-2,87%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-34,05%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-31,14%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-30,41%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 27,68</t>
+          <t>-42,54; 62,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,11; -23,36</t>
+          <t>-62,62; -1,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,22; -12,03</t>
+          <t>-57,93; 5,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,52; 16,22</t>
+          <t>-59,14; 13,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,16; 20,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,91; -5,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,65; -2,52</t>
+          <t>-26,24; 25,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 13,99</t>
+          <t>-46,93; -9,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 12,27</t>
+          <t>-45,44; -10,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-43,89; -19,87</t>
+          <t>-49,19; -6,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-41,02; -14,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-25,68; 6,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-25,37; 25,47</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-47,77; -15,33</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-47,24; -12,47</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-48,24; -10,48</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,69</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-9,91</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-8,04</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-6,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-3,69</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-4,91</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-6,83</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 5,24</t>
+          <t>-8,29; 5,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 2,16</t>
+          <t>-9,81; 4,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 1,54</t>
+          <t>-11,04; 2,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 6,05</t>
+          <t>-15,08; -2,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 5,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,17; -4,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,3; -5,52</t>
+          <t>-4,9; 7,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,75; -1,62</t>
+          <t>-10,2; 0,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 3,56</t>
+          <t>-11,14; -0,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-9,09; -2,3</t>
+          <t>-11,29; -0,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-10,49; -3,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-8,41; -0,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 4,71</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-8,04; 0,75</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-9,63; -0,84</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-10,86; -2,87</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>-10,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-24,19%</t>
+          <t>-22,26%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-33,7%</t>
+          <t>-33,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,63%</t>
+          <t>-60,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-43,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-50,13%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-40,65%</t>
+          <t>-28,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,53%</t>
+          <t>-35,12%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-35,98%</t>
+          <t>-38,36%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-43,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-29,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-26,12%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-34,82%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-48,39%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,66; 52,49</t>
+          <t>-51,21; 69,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,19; 21,55</t>
+          <t>-59,67; 55,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,71; 21,14</t>
+          <t>-63,46; 34,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-52,31; 53,12</t>
+          <t>-80,9; -18,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 30,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,77; -24,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-64,02; -31,83</t>
+          <t>-25,31; 64,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,32; -9,07</t>
+          <t>-52,71; 7,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 25,0</t>
+          <t>-55,62; -0,64</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-50,38; -16,12</t>
+          <t>-60,5; -5,5</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-57,63; -23,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-48,21; -0,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-26,74; 39,58</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-47,73; 6,29</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-56,07; -5,69</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-63,93; -22,82</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-7,78</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,23</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,7</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-5,69</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-7,21</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 2,84</t>
+          <t>-4,6; 5,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,35; -3,43</t>
+          <t>-9,55; -0,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,87; -3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 2,68</t>
+          <t>-11,99; -2,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 2,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,76; -3,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,8; -3,71</t>
+          <t>-7,61; 0,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,92; -1,33</t>
+          <t>-10,88; -1,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-8,17; -4,01</t>
+          <t>-10,9; -1,89</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-8,55; -4,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 0,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 1,75</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-8,97; -2,28</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-10,52; -4,22</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,12%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-36,94%</t>
+          <t>-29,75%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-41,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,9%</t>
+          <t>-46,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-30,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-31,81%</t>
+          <t>-18,21%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-21,14%</t>
+          <t>-32,39%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-4,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-33,6%</t>
+          <t>-33,28%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-35,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>-12,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-9,35%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-31,34%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-39,7%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 19,44</t>
+          <t>-24,21; 35,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,22; -22,47</t>
+          <t>-51,98; -0,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,57; -23,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 18,28</t>
+          <t>-64,36; -18,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 13,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,42; -19,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,62; -20,59</t>
+          <t>-36,37; 4,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,47; -7,86</t>
+          <t>-51,53; -9,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 9,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-42,56; -23,73</t>
+          <t>-52,34; -9,83</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-44,85; -26,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 0,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-26,36; 10,56</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-47,72; -13,64</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-53,92; -24,22</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-6,27</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-6,65</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-7,56</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-5,95</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-6,17</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-6,24</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-1,39</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-6,11</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-6,41</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-6,88</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,08; 1,86</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-9,71; -3,49</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-9,87; -3,3</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-10,91; -4,91</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 1,81</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-8,51; -3,26</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-8,88; -3,47</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-9,16; -3,48</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 0,93</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-8,21; -3,97</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-8,56; -4,2</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-8,89; -4,67</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-9,58%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-38,09%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-40,4%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-45,92%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-6,23%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-30,31%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-31,45%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-31,81%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-7,72%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-33,79%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-35,46%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-38,07%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-28,66; 12,46</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-51,76; -22,96</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-54,09; -21,97</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-58,65; -31,64</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-19,8; 9,36</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-40,19; -17,84</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-42,03; -19,0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-43,18; -19,22</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-19,6; 5,64</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-42,5; -22,97</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-44,01; -24,73</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-46,34; -28,4</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
